--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c37fa92ce82eeba9/바탕 화면/workspace/project/Clone_Coding/Project_inshim(T)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c37fa92ce82eeba9/바탕 화면/workspace/project/Clone_Coding/Project_inshim(T)/Team-project-inshim/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="93" documentId="8_{BC9D05F3-E66D-4982-A555-E76419107DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5252A4DA-0E3D-4945-9A8D-C8CE1F743B4C}"/>
@@ -299,6 +299,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE77758-48A6-4A45-9EED-E38544481AB0}">
   <dimension ref="C2:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
